--- a/03 履歴書/履歴書_出村和彦_雛形.xlsx
+++ b/03 履歴書/履歴書_出村和彦_雛形.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c555611ed1615c39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F3274A3-0B3B-4675-8C15-33EFE53BC6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED94B51D-A214-4F75-9C28-740CCDC4B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,13 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>履　歴　書</t>
-  </si>
-  <si>
-    <t>2024年　月　日　現在</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve"> ふりがな</t>
@@ -130,7 +126,6 @@
   </si>
   <si>
     <t>普通自動車第一種運転免許（AT限定）　取得</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>大阪市立上宮高等学校　卒業</t>
@@ -1474,9 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1543,9 +1535,90 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1570,6 +1643,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1582,12 +1673,33 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1609,198 +1721,135 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1810,51 +1859,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1875,21 +1885,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2013,8 +2008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467224" y="111072"/>
-          <a:ext cx="1158875" cy="1476428"/>
+          <a:off x="4457699" y="111072"/>
+          <a:ext cx="1158875" cy="1508178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2452,55 +2447,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1259212</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>227975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D3E21E-1820-44F4-B540-31E2242C839F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="111125"/>
-          <a:ext cx="1159200" cy="1545600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3611,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:M18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="22.5" customHeight="1"/>
@@ -3664,912 +3610,913 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="131" t="str">
+        <f ca="1">TEXT(TODAY(),"yyyy年 m月 d日")&amp;"　現在"</f>
+        <v>2024年 2月 27日　現在</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="s">
+      <c r="F3" s="112"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="65" t="s">
+      <c r="J3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="K3" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="10"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="10"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="10"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
+      <c r="A7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" ht="8.1" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="10"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="10"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
+      <c r="A11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
-      <c r="A12" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" ht="8.1" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="C15" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="112" t="s">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="10"/>
+      <c r="K15" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="128"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="59" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="26">
+        <v>2010</v>
+      </c>
+      <c r="J16" s="27">
+        <v>6</v>
+      </c>
+      <c r="K16" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="27">
-        <v>2010</v>
-      </c>
-      <c r="J16" s="28">
-        <v>6</v>
-      </c>
-      <c r="K16" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="117"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A17" s="119">
+      <c r="A17" s="49">
         <v>2010</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="50">
         <v>3</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="49">
+        <v>2022</v>
+      </c>
+      <c r="J17" s="37">
+        <v>3</v>
+      </c>
+      <c r="K17" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="119">
-        <v>2022</v>
-      </c>
-      <c r="J17" s="83">
-        <v>3</v>
-      </c>
-      <c r="K17" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="10"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A18" s="119">
+      <c r="A18" s="49">
         <v>2011</v>
       </c>
-      <c r="B18" s="120">
+      <c r="B18" s="50">
         <v>4</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
+      <c r="C18" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A19" s="82">
+      <c r="A19" s="36">
         <v>2015</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="37">
         <v>3</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="10"/>
+      <c r="C19" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="10"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" ht="12" customHeight="1">
-      <c r="A22" s="123">
+      <c r="A22" s="105">
         <v>2015</v>
       </c>
-      <c r="B22" s="124">
+      <c r="B22" s="104">
         <v>4</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="39" t="s">
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="10"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="42" t="s">
+      <c r="A23" s="137"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="128"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A24" s="119">
+      <c r="A24" s="49">
         <v>2021</v>
       </c>
-      <c r="B24" s="120">
+      <c r="B24" s="50">
         <v>2</v>
       </c>
-      <c r="C24" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="10"/>
+      <c r="C24" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A25" s="119">
+      <c r="A25" s="49">
         <v>2021</v>
       </c>
-      <c r="B25" s="120">
+      <c r="B25" s="50">
         <v>6</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="49"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="10"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A26" s="82">
+      <c r="A26" s="36">
         <v>2023</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="37">
         <v>3</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="44"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="10"/>
+      <c r="C26" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="82"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="18" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="10"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="52" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="10"/>
+      <c r="M28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="9"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="10"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="139" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="9"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="10"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="9"/>
     </row>
     <row r="31" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="10"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="9"/>
     </row>
     <row r="32" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="10"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="9"/>
     </row>
     <row r="33" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="10"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="10"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="9"/>
     </row>
     <row r="35" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A35" s="141"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="12"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="146"/>
       <c r="J35" s="147"/>
       <c r="K35" s="147"/>
       <c r="L35" s="147"/>
       <c r="M35" s="148"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="10"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="9"/>
     </row>
     <row r="36" spans="1:20" ht="22.5" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="25"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="58">
